--- a/Excel/075_Arquivo.xlsx
+++ b/Excel/075_Arquivo.xlsx
@@ -8,18 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE74394-4139-49A8-9C62-A6C222E0DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F901F4CF-D1D9-4F8C-B5E1-1C5ED7A0FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="8" r:id="rId1"/>
+    <sheet name="Tabela Dinâmica" sheetId="9" r:id="rId1"/>
+    <sheet name="Dados" sheetId="8" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Cargo">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Promoção">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -154,14 +168,18 @@
   </si>
   <si>
     <t>Soma de Salário</t>
+  </si>
+  <si>
+    <t>Soma de Idade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -243,11 +261,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -265,15 +284,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,6 +309,167 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Promoção">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3503EC52-28FD-C46A-504E-7BC40EBCD099}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Promoção"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="97971" y="288471"/>
+              <a:ext cx="1828800" cy="1050472"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Cargo">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E523D31-0D09-3D14-E18E-51691D0430A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Cargo"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2046514" y="157843"/>
+              <a:ext cx="1828800" cy="1257300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rodrigo Costa" refreshedDate="45464.774210763891" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{D214D0A2-5463-49C2-A680-CAB6E301BB2B}">
   <cacheSource type="worksheet">
@@ -295,10 +477,37 @@
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="CPF" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="13">
+        <s v="123.456.789-10"/>
+        <s v="123.456.789-11"/>
+        <s v="123.456.789-12"/>
+        <s v="123.456.789-13"/>
+        <s v="123.456.789-14"/>
+        <s v="123.456.789-15"/>
+        <s v="123.456.789-16"/>
+        <s v="123.456.789-17"/>
+        <s v="123.456.789-18"/>
+        <s v="123.456.789-19"/>
+        <s v="123.456.789-20"/>
+        <s v="123.456.789-21"/>
+        <s v="123.456.789-22"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Nome" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="12">
+        <s v="Bruna Alves"/>
+        <s v="Afonso Alves"/>
+        <s v="Juliana Pires"/>
+        <s v="Henrique Silva"/>
+        <s v="Kaliane Abreu"/>
+        <s v="Ryan Merryman"/>
+        <s v="Robson Martins"/>
+        <s v="Thiago Santana"/>
+        <s v="Erika Souza Aguiar"/>
+        <s v="Felipe Borges"/>
+        <s v="Tiago de Oliveira"/>
+        <s v="Frederico Rubens"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Cargo" numFmtId="0">
       <sharedItems count="5">
@@ -324,7 +533,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="662707650"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -333,104 +542,104 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
   <r>
-    <s v="123.456.789-10"/>
-    <s v="Bruna Alves"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="23"/>
     <n v="2000"/>
   </r>
   <r>
-    <s v="123.456.789-11"/>
-    <s v="Afonso Alves"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <n v="23"/>
     <n v="100"/>
   </r>
   <r>
-    <s v="123.456.789-12"/>
-    <s v="Juliana Pires"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
     <n v="24"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="123.456.789-13"/>
-    <s v="Henrique Silva"/>
+    <x v="3"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <n v="23"/>
     <n v="100"/>
   </r>
   <r>
-    <s v="123.456.789-14"/>
-    <s v="Kaliane Abreu"/>
+    <x v="4"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="1"/>
     <n v="26"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="123.456.789-15"/>
-    <s v="Ryan Merryman"/>
+    <x v="5"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="1"/>
     <n v="26"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="123.456.789-16"/>
-    <s v="Robson Martins"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="3"/>
     <x v="0"/>
     <n v="26"/>
     <n v="3000"/>
   </r>
   <r>
-    <s v="123.456.789-17"/>
-    <s v="Thiago Santana"/>
+    <x v="7"/>
+    <x v="7"/>
     <x v="3"/>
     <x v="0"/>
     <n v="26"/>
     <n v="3000"/>
   </r>
   <r>
-    <s v="123.456.789-18"/>
-    <s v="Erika Souza Aguiar"/>
+    <x v="8"/>
+    <x v="8"/>
     <x v="3"/>
     <x v="1"/>
     <n v="26"/>
     <n v="3000"/>
   </r>
   <r>
-    <s v="123.456.789-19"/>
-    <s v="Felipe Borges"/>
+    <x v="9"/>
+    <x v="9"/>
     <x v="4"/>
     <x v="1"/>
     <n v="26"/>
     <n v="4000"/>
   </r>
   <r>
-    <s v="123.456.789-20"/>
-    <s v="Tiago de Oliveira"/>
+    <x v="10"/>
+    <x v="10"/>
     <x v="4"/>
     <x v="1"/>
     <n v="26"/>
     <n v="4000"/>
   </r>
   <r>
-    <s v="123.456.789-21"/>
-    <s v="Frederico Rubens"/>
+    <x v="11"/>
+    <x v="11"/>
     <x v="4"/>
     <x v="1"/>
     <n v="26"/>
     <n v="4000"/>
   </r>
   <r>
-    <s v="123.456.789-22"/>
-    <s v="Frederico Rubens"/>
+    <x v="12"/>
+    <x v="11"/>
     <x v="4"/>
     <x v="1"/>
     <n v="26"/>
@@ -440,7 +649,260 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A11:F25" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="44" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="0"/>
+    <field x="2"/>
+    <field x="1"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+      <x v="5"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="4"/>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="4"/>
+      <x v="9"/>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="2"/>
+      <x v="8"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="2"/>
+      <x v="10"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="2"/>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="3"/>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="3"/>
+      <x v="11"/>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Idade" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H11:J21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -528,53 +990,46 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Promoção" xr10:uid="{30237204-C183-4DF6-B295-9F0EFD936490}" sourceName="Promoção">
+  <pivotTables>
+    <pivotTable tabId="9" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="662707650">
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
       </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Cargo" xr10:uid="{4E297C92-1A83-499E-9E4D-C5FDCAEDB4DB}" sourceName="Cargo">
+  <pivotTables>
+    <pivotTable tabId="9" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="662707650">
+      <items count="5">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Promoção" xr10:uid="{C67B0336-2421-4B37-8990-E65D60724A12}" cache="SegmentaçãodeDados_Promoção" caption="Promoção" style="SlicerStyleLight4" rowHeight="245835"/>
+  <slicer name="Cargo" xr10:uid="{711B2944-2589-4327-A4F3-3AAB5217D83E}" cache="SegmentaçãodeDados_Cargo" caption="Cargo" style="SlicerStyleLight4" rowHeight="245835"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,11 +1328,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DD5DAE-C6A9-4749-BC95-A2BA80B443CA}">
+  <dimension ref="A11:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.15234375" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11">
+        <v>23</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11">
+        <v>23</v>
+      </c>
+      <c r="F13" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="11">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="11">
+        <v>23</v>
+      </c>
+      <c r="F15" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="11">
+        <v>26</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="11">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="11">
+        <v>26</v>
+      </c>
+      <c r="F19" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="11">
+        <v>26</v>
+      </c>
+      <c r="F20" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="11">
+        <v>26</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="11">
+        <v>26</v>
+      </c>
+      <c r="F22" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11">
+        <v>26</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="11">
+        <v>26</v>
+      </c>
+      <c r="F24" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="11">
+        <v>327</v>
+      </c>
+      <c r="F25" s="11">
+        <v>42200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F3BCF-0275-494A-9981-C75EC037E171}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -887,7 +1664,7 @@
     <col min="6" max="6" width="21.69140625" customWidth="1"/>
     <col min="8" max="8" width="16.921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.15234375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.15234375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -958,7 +1735,7 @@
       <c r="H3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3">
         <v>9</v>
       </c>
     </row>
@@ -984,7 +1761,7 @@
       <c r="H4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4">
         <v>4</v>
       </c>
     </row>
@@ -1010,7 +1787,7 @@
       <c r="H5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>13</v>
       </c>
     </row>
@@ -1139,7 +1916,7 @@
       <c r="I11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1165,10 +1942,10 @@
       <c r="H12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>34100</v>
       </c>
     </row>
@@ -1191,13 +1968,13 @@
       <c r="F13" s="3">
         <v>4000</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>100</v>
       </c>
     </row>
@@ -1220,35 +1997,35 @@
       <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>16000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>15000</v>
       </c>
     </row>
@@ -1256,43 +2033,43 @@
       <c r="H17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <v>8100</v>
       </c>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>2000</v>
       </c>
     </row>
     <row r="20" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="H20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>6000</v>
       </c>
     </row>
@@ -1300,10 +2077,10 @@
       <c r="H21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21">
         <v>13</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <v>42200</v>
       </c>
     </row>
@@ -1315,6 +2092,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -1511,22 +2303,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1543,29 +2345,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel/075_Arquivo.xlsx
+++ b/Excel/075_Arquivo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F901F4CF-D1D9-4F8C-B5E1-1C5ED7A0FA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB05A56-9DD2-46FB-9EBA-9029D70F47CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="1" activeTab="1" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabela Dinâmica" sheetId="9" r:id="rId1"/>
-    <sheet name="Dados" sheetId="8" r:id="rId2"/>
+    <sheet name="Tabela Dinâmica1" sheetId="9" r:id="rId1"/>
+    <sheet name="Tabela Dinâmica2" sheetId="10" r:id="rId2"/>
+    <sheet name="Dados" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Cargo">#N/A</definedName>
@@ -22,13 +23,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId4"/>
         <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -288,8 +289,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -324,8 +325,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Promoção">
@@ -348,7 +349,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -402,8 +403,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Cargo">
@@ -426,7 +427,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -649,7 +650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A11:F25" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -853,7 +854,121 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -901,8 +1016,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H11:J21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1331,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DD5DAE-C6A9-4749-BC95-A2BA80B443CA}">
   <dimension ref="A11:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1342,7 +1457,7 @@
     <col min="3" max="3" width="14.15234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.53515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.15234375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.15234375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1378,10 +1493,10 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12">
         <v>23</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12">
         <v>2000</v>
       </c>
     </row>
@@ -1398,10 +1513,10 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13">
         <v>23</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13">
         <v>100</v>
       </c>
     </row>
@@ -1418,10 +1533,10 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14">
         <v>24</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14">
         <v>5000</v>
       </c>
     </row>
@@ -1438,10 +1553,10 @@
       <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15">
         <v>23</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15">
         <v>100</v>
       </c>
     </row>
@@ -1458,10 +1573,10 @@
       <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16">
         <v>26</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16">
         <v>5000</v>
       </c>
     </row>
@@ -1478,10 +1593,10 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17">
         <v>26</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17">
         <v>5000</v>
       </c>
     </row>
@@ -1498,10 +1613,10 @@
       <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18">
         <v>26</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18">
         <v>3000</v>
       </c>
     </row>
@@ -1518,10 +1633,10 @@
       <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19">
         <v>26</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19">
         <v>3000</v>
       </c>
     </row>
@@ -1538,10 +1653,10 @@
       <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20">
         <v>26</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20">
         <v>3000</v>
       </c>
     </row>
@@ -1558,10 +1673,10 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21">
         <v>26</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21">
         <v>4000</v>
       </c>
     </row>
@@ -1578,10 +1693,10 @@
       <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>26</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22">
         <v>4000</v>
       </c>
     </row>
@@ -1598,10 +1713,10 @@
       <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23">
         <v>26</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23">
         <v>4000</v>
       </c>
     </row>
@@ -1618,10 +1733,10 @@
       <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24">
         <v>26</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24">
         <v>4000</v>
       </c>
     </row>
@@ -1629,10 +1744,10 @@
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25">
         <v>327</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25">
         <v>42200</v>
       </c>
     </row>
@@ -1650,11 +1765,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7775159-B8CA-4AD0-8B54-31B8C5720CA4}">
+  <dimension ref="A3:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="12">
+        <v>42200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F3BCF-0275-494A-9981-C75EC037E171}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2098,15 +2384,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -2303,6 +2580,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
   <ds:schemaRefs>
@@ -2321,14 +2607,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2345,4 +2623,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel/075_Arquivo.xlsx
+++ b/Excel/075_Arquivo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB05A56-9DD2-46FB-9EBA-9029D70F47CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC48D17-FF0A-4EAB-9E6A-AD75B654815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="1" activeTab="1" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="2" activeTab="2" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Dinâmica1" sheetId="9" r:id="rId1"/>
     <sheet name="Tabela Dinâmica2" sheetId="10" r:id="rId2"/>
-    <sheet name="Dados" sheetId="8" r:id="rId3"/>
+    <sheet name="Tabela Dinâmica3" sheetId="11" r:id="rId3"/>
+    <sheet name="Dados" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Cargo">#N/A</definedName>
@@ -23,13 +24,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -172,6 +173,9 @@
   </si>
   <si>
     <t>Soma de Idade</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
   </si>
 </sst>
 </file>
@@ -526,7 +530,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Idade" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="26"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="23" maxValue="26" count="3">
+        <n v="23"/>
+        <n v="24"/>
+        <n v="26"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Salário" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="5000"/>
@@ -547,7 +555,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="23"/>
+    <x v="0"/>
     <n v="2000"/>
   </r>
   <r>
@@ -555,7 +563,7 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="23"/>
+    <x v="0"/>
     <n v="100"/>
   </r>
   <r>
@@ -563,7 +571,7 @@
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="24"/>
+    <x v="1"/>
     <n v="5000"/>
   </r>
   <r>
@@ -571,7 +579,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="23"/>
+    <x v="0"/>
     <n v="100"/>
   </r>
   <r>
@@ -579,7 +587,7 @@
     <x v="4"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="5000"/>
   </r>
   <r>
@@ -587,7 +595,7 @@
     <x v="5"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="5000"/>
   </r>
   <r>
@@ -595,7 +603,7 @@
     <x v="6"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="3000"/>
   </r>
   <r>
@@ -603,7 +611,7 @@
     <x v="7"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="3000"/>
   </r>
   <r>
@@ -611,7 +619,7 @@
     <x v="8"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="3000"/>
   </r>
   <r>
@@ -619,7 +627,7 @@
     <x v="9"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="4000"/>
   </r>
   <r>
@@ -627,7 +635,7 @@
     <x v="10"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="4000"/>
   </r>
   <r>
@@ -635,7 +643,7 @@
     <x v="11"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="4000"/>
   </r>
   <r>
@@ -643,14 +651,14 @@
     <x v="11"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="26"/>
+    <x v="2"/>
     <n v="4000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A11:F25" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -854,7 +862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -968,7 +976,89 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A32EB353-8D9D-4889-8E0C-F717106C12D1}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1016,8 +1106,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H11:J21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1768,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7775159-B8CA-4AD0-8B54-31B8C5720CA4}">
   <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1790,7 +1880,7 @@
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>200</v>
       </c>
     </row>
@@ -1798,7 +1888,7 @@
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>100</v>
       </c>
     </row>
@@ -1806,7 +1896,7 @@
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>100</v>
       </c>
     </row>
@@ -1814,7 +1904,7 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>2000</v>
       </c>
     </row>
@@ -1822,7 +1912,7 @@
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>2000</v>
       </c>
     </row>
@@ -1830,7 +1920,7 @@
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>9000</v>
       </c>
     </row>
@@ -1838,7 +1928,7 @@
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>3000</v>
       </c>
     </row>
@@ -1846,7 +1936,7 @@
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>3000</v>
       </c>
     </row>
@@ -1854,7 +1944,7 @@
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>3000</v>
       </c>
     </row>
@@ -1862,7 +1952,7 @@
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>16000</v>
       </c>
     </row>
@@ -1870,7 +1960,7 @@
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>4000</v>
       </c>
     </row>
@@ -1878,7 +1968,7 @@
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>8000</v>
       </c>
     </row>
@@ -1886,7 +1976,7 @@
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>4000</v>
       </c>
     </row>
@@ -1894,7 +1984,7 @@
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>15000</v>
       </c>
     </row>
@@ -1902,7 +1992,7 @@
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>5000</v>
       </c>
     </row>
@@ -1910,7 +2000,7 @@
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>5000</v>
       </c>
     </row>
@@ -1918,7 +2008,7 @@
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>5000</v>
       </c>
     </row>
@@ -1926,7 +2016,7 @@
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21">
         <v>42200</v>
       </c>
     </row>
@@ -1936,6 +2026,137 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36FB13B-2F84-4B92-ACF8-361DEC1BB653}">
+  <dimension ref="A3:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="12">
+        <v>200</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>9000</v>
+      </c>
+      <c r="E7" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <v>16000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="12">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2200</v>
+      </c>
+      <c r="C10" s="12">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="12">
+        <v>35000</v>
+      </c>
+      <c r="E10" s="12">
+        <v>42200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F3BCF-0275-494A-9981-C75EC037E171}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -2378,9 +2599,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2581,27 +2805,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2626,9 +2838,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel/075_Arquivo.xlsx
+++ b/Excel/075_Arquivo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC48D17-FF0A-4EAB-9E6A-AD75B654815F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21E39E-7E41-4989-9880-D7DFD6C2141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="2" activeTab="2" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="3" activeTab="3" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Dinâmica1" sheetId="9" r:id="rId1"/>
     <sheet name="Tabela Dinâmica2" sheetId="10" r:id="rId2"/>
     <sheet name="Tabela Dinâmica3" sheetId="11" r:id="rId3"/>
-    <sheet name="Dados" sheetId="8" r:id="rId4"/>
+    <sheet name="Tabela Dinâmica4" sheetId="12" r:id="rId4"/>
+    <sheet name="Dados" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Cargo">#N/A</definedName>
@@ -24,13 +25,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -176,6 +177,21 @@
   </si>
   <si>
     <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Estagiário Total</t>
+  </si>
+  <si>
+    <t>Junior Total</t>
+  </si>
+  <si>
+    <t>Pleno Total</t>
+  </si>
+  <si>
+    <t>Senior Total</t>
+  </si>
+  <si>
+    <t>Supervisor Total</t>
   </si>
 </sst>
 </file>
@@ -658,7 +674,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A11:F25" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -862,7 +878,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -976,7 +992,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A32EB353-8D9D-4889-8E0C-F717106C12D1}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A32EB353-8D9D-4889-8E0C-F717106C12D1}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1058,31 +1074,145 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15F7C6D7-6DD8-4A5D-A771-DA944CC61C25}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+    <pivotField compact="0" subtotalTop="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" subtotalTop="0" showAll="0">
+      <items count="13">
         <item x="1"/>
         <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" subtotalTop="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" subtotalTop="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="44" subtotalTop="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="23">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
     <i>
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -1092,22 +1222,22 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H11:J21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1182,6 +1312,55 @@
   <dataFields count="2">
     <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2029,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36FB13B-2F84-4B92-ACF8-361DEC1BB653}">
   <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2071,12 +2250,10 @@
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>200</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+      <c r="E5">
         <v>200</v>
       </c>
     </row>
@@ -2084,12 +2261,10 @@
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>2000</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="E6">
         <v>2000</v>
       </c>
     </row>
@@ -2097,12 +2272,10 @@
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="D7">
         <v>9000</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7">
         <v>9000</v>
       </c>
     </row>
@@ -2110,12 +2283,10 @@
       <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
+      <c r="D8">
         <v>16000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8">
         <v>16000</v>
       </c>
     </row>
@@ -2123,14 +2294,13 @@
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>5000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
         <v>10000</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9">
         <v>15000</v>
       </c>
     </row>
@@ -2138,16 +2308,16 @@
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>2200</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>5000</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
         <v>35000</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10">
         <v>42200</v>
       </c>
     </row>
@@ -2157,12 +2327,251 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47DD8E-3249-4F5F-AFFD-C50934266358}">
+  <dimension ref="A3:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12">
+        <v>42200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F3BCF-0275-494A-9981-C75EC037E171}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2608,6 +3017,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -2804,12 +3219,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
   <ds:schemaRefs>
@@ -2819,6 +3228,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2835,21 +3261,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel/075_Arquivo.xlsx
+++ b/Excel/075_Arquivo.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21E39E-7E41-4989-9880-D7DFD6C2141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565361BE-3BDE-4219-9410-C60B70317736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="3" activeTab="3" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="4" activeTab="4" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Dinâmica1" sheetId="9" r:id="rId1"/>
     <sheet name="Tabela Dinâmica2" sheetId="10" r:id="rId2"/>
     <sheet name="Tabela Dinâmica3" sheetId="11" r:id="rId3"/>
     <sheet name="Tabela Dinâmica4" sheetId="12" r:id="rId4"/>
-    <sheet name="Dados" sheetId="8" r:id="rId5"/>
+    <sheet name="Tabela Dinâmica5" sheetId="13" r:id="rId5"/>
+    <sheet name="Dados" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Cargo">#N/A</definedName>
@@ -25,13 +26,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="49">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -674,7 +675,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A11:F25" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -878,7 +879,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -992,7 +993,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A32EB353-8D9D-4889-8E0C-F717106C12D1}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A32EB353-8D9D-4889-8E0C-F717106C12D1}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1074,7 +1075,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15F7C6D7-6DD8-4A5D-A771-DA944CC61C25}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15F7C6D7-6DD8-4A5D-A771-DA944CC61C25}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" subtotalTop="0" showAll="0">
@@ -1237,7 +1238,190 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E71CAC5D-D8BE-412E-A5E1-0E5B5229C4D6}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="6">
+    <pivotField compact="0" outline="0" showAll="0" insertBlankRow="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" insertBlankRow="1">
+      <items count="13">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" insertBlankRow="1">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" insertBlankRow="1"/>
+    <pivotField compact="0" outline="0" showAll="0" insertBlankRow="1"/>
+    <pivotField dataField="1" compact="0" numFmtId="44" outline="0" showAll="0" insertBlankRow="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="blank">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="blank">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="blank">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i t="blank">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i t="blank">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 InsertBlankRowDefault="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H11:J21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1312,55 +1496,6 @@
   <dataFields count="2">
     <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2330,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47DD8E-3249-4F5F-AFFD-C50934266358}">
   <dimension ref="A3:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2356,7 +2491,6 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -2365,7 +2499,7 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>100</v>
       </c>
     </row>
@@ -2376,7 +2510,7 @@
       <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>100</v>
       </c>
     </row>
@@ -2384,7 +2518,7 @@
       <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7">
         <v>200</v>
       </c>
     </row>
@@ -2392,7 +2526,6 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -2401,7 +2534,7 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>2000</v>
       </c>
     </row>
@@ -2409,7 +2542,7 @@
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10">
         <v>2000</v>
       </c>
     </row>
@@ -2417,7 +2550,6 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -2426,7 +2558,7 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>3000</v>
       </c>
     </row>
@@ -2437,7 +2569,7 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>3000</v>
       </c>
     </row>
@@ -2448,7 +2580,7 @@
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>3000</v>
       </c>
     </row>
@@ -2456,7 +2588,7 @@
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15">
         <v>9000</v>
       </c>
     </row>
@@ -2464,7 +2596,6 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
@@ -2473,7 +2604,7 @@
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17">
         <v>4000</v>
       </c>
     </row>
@@ -2484,7 +2615,7 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18">
         <v>8000</v>
       </c>
     </row>
@@ -2495,7 +2626,7 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19">
         <v>4000</v>
       </c>
     </row>
@@ -2503,7 +2634,7 @@
       <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20">
         <v>16000</v>
       </c>
     </row>
@@ -2511,7 +2642,6 @@
       <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="12"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
@@ -2520,7 +2650,7 @@
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22">
         <v>5000</v>
       </c>
     </row>
@@ -2531,7 +2661,7 @@
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23">
         <v>5000</v>
       </c>
     </row>
@@ -2542,7 +2672,7 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24">
         <v>5000</v>
       </c>
     </row>
@@ -2550,7 +2680,7 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25">
         <v>15000</v>
       </c>
     </row>
@@ -2558,7 +2688,7 @@
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26">
         <v>42200</v>
       </c>
     </row>
@@ -2568,6 +2698,211 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE06010-49FA-4967-B6E2-ADEC083AE9FA}">
+  <dimension ref="A3:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="12">
+        <v>42200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F3BCF-0275-494A-9981-C75EC037E171}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3008,21 +3343,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -3219,10 +3539,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3245,20 +3591,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel/075_Arquivo.xlsx
+++ b/Excel/075_Arquivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565361BE-3BDE-4219-9410-C60B70317736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696BA8C-4D54-4147-8053-95270CB06BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="4" activeTab="4" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="5" activeTab="5" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Dinâmica1" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Tabela Dinâmica3" sheetId="11" r:id="rId3"/>
     <sheet name="Tabela Dinâmica4" sheetId="12" r:id="rId4"/>
     <sheet name="Tabela Dinâmica5" sheetId="13" r:id="rId5"/>
-    <sheet name="Dados" sheetId="8" r:id="rId6"/>
+    <sheet name="Tabela Dinâmica6" sheetId="14" r:id="rId6"/>
+    <sheet name="Dados" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Cargo">#N/A</definedName>
@@ -26,13 +27,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="49">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -675,7 +676,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE0F43EC-6102-490C-97CB-3309D0A8058C}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A11:F25" firstHeaderRow="0" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -879,7 +880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04A5B940-C89E-4B73-8077-4676D220E743}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -993,7 +994,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A32EB353-8D9D-4889-8E0C-F717106C12D1}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A32EB353-8D9D-4889-8E0C-F717106C12D1}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1075,7 +1076,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15F7C6D7-6DD8-4A5D-A771-DA944CC61C25}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15F7C6D7-6DD8-4A5D-A771-DA944CC61C25}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" subtotalTop="0" showAll="0">
@@ -1238,7 +1239,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E71CAC5D-D8BE-412E-A5E1-0E5B5229C4D6}" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E71CAC5D-D8BE-412E-A5E1-0E5B5229C4D6}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" insertBlankRow="1"/>
@@ -1372,7 +1373,121 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66701C2B-E4A6-4E13-AF61-452039DEB8A3}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -1420,8 +1535,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAAA2E67-55C3-4E17-BE88-B6DE3A92EEA2}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H11:J21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -2701,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE06010-49FA-4967-B6E2-ADEC083AE9FA}">
   <dimension ref="A3:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2845,7 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4">
         <v>100</v>
       </c>
     </row>
@@ -2738,7 +2853,7 @@
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5">
         <v>100</v>
       </c>
     </row>
@@ -2746,12 +2861,9 @@
       <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -2760,7 +2872,7 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8">
         <v>2000</v>
       </c>
     </row>
@@ -2768,12 +2880,9 @@
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -2782,7 +2891,7 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11">
         <v>3000</v>
       </c>
     </row>
@@ -2790,7 +2899,7 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12">
         <v>3000</v>
       </c>
     </row>
@@ -2798,7 +2907,7 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13">
         <v>3000</v>
       </c>
     </row>
@@ -2806,12 +2915,9 @@
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14">
         <v>9000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -2820,7 +2926,7 @@
       <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16">
         <v>4000</v>
       </c>
     </row>
@@ -2828,7 +2934,7 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17">
         <v>8000</v>
       </c>
     </row>
@@ -2836,7 +2942,7 @@
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18">
         <v>4000</v>
       </c>
     </row>
@@ -2844,12 +2950,9 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19">
         <v>16000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
@@ -2858,7 +2961,7 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21">
         <v>5000</v>
       </c>
     </row>
@@ -2866,7 +2969,7 @@
       <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22">
         <v>5000</v>
       </c>
     </row>
@@ -2874,7 +2977,7 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23">
         <v>5000</v>
       </c>
     </row>
@@ -2882,18 +2985,15 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24">
         <v>15000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26">
         <v>42200</v>
       </c>
     </row>
@@ -2903,6 +3003,177 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70716A20-500E-499C-9F9F-83768954A77D}">
+  <dimension ref="A3:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="12">
+        <v>42200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F3BCF-0275-494A-9981-C75EC037E171}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3343,6 +3614,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -3539,36 +3825,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3591,9 +3851,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel/075_Arquivo.xlsx
+++ b/Excel/075_Arquivo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696BA8C-4D54-4147-8053-95270CB06BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3886BF62-4555-40BF-A147-4950B7769172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="5" activeTab="5" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="390" firstSheet="6" activeTab="6" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela Dinâmica1" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Tabela Dinâmica4" sheetId="12" r:id="rId4"/>
     <sheet name="Tabela Dinâmica5" sheetId="13" r:id="rId5"/>
     <sheet name="Tabela Dinâmica6" sheetId="14" r:id="rId6"/>
-    <sheet name="Dados" sheetId="8" r:id="rId7"/>
+    <sheet name="Tabela Dinâmica7" sheetId="15" r:id="rId7"/>
+    <sheet name="Dados" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Cargo">#N/A</definedName>
@@ -27,13 +28,13 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="50">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -194,6 +195,9 @@
   </si>
   <si>
     <t>Supervisor Total</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
   </si>
 </sst>
 </file>
@@ -1487,31 +1491,66 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D9714FE-5834-4C48-9CC0-6A5ED69D7F71}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
+  <rowItems count="4">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -1520,8 +1559,13 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="3">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="2" item="4" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1611,6 +1655,55 @@
   <dataFields count="2">
     <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="Soma de Salário" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB7AF5B-DF8E-4D7D-8693-BE8F4E9D0C7D}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H2:I5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de CPF" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3006,7 +3099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70716A20-500E-499C-9F9F-83768954A77D}">
   <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3028,7 +3121,7 @@
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4">
         <v>200</v>
       </c>
     </row>
@@ -3036,7 +3129,7 @@
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5">
         <v>100</v>
       </c>
     </row>
@@ -3044,7 +3137,7 @@
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6">
         <v>100</v>
       </c>
     </row>
@@ -3052,7 +3145,7 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7">
         <v>2000</v>
       </c>
     </row>
@@ -3060,7 +3153,7 @@
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8">
         <v>2000</v>
       </c>
     </row>
@@ -3068,7 +3161,7 @@
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9">
         <v>9000</v>
       </c>
     </row>
@@ -3076,7 +3169,7 @@
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10">
         <v>3000</v>
       </c>
     </row>
@@ -3084,7 +3177,7 @@
       <c r="A11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11">
         <v>3000</v>
       </c>
     </row>
@@ -3092,7 +3185,7 @@
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12">
         <v>3000</v>
       </c>
     </row>
@@ -3100,7 +3193,7 @@
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13">
         <v>16000</v>
       </c>
     </row>
@@ -3108,7 +3201,7 @@
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14">
         <v>4000</v>
       </c>
     </row>
@@ -3116,7 +3209,7 @@
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15">
         <v>8000</v>
       </c>
     </row>
@@ -3124,7 +3217,7 @@
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16">
         <v>4000</v>
       </c>
     </row>
@@ -3132,7 +3225,7 @@
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17">
         <v>15000</v>
       </c>
     </row>
@@ -3140,7 +3233,7 @@
       <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18">
         <v>5000</v>
       </c>
     </row>
@@ -3148,7 +3241,7 @@
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19">
         <v>5000</v>
       </c>
     </row>
@@ -3156,7 +3249,7 @@
       <c r="A20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20">
         <v>5000</v>
       </c>
     </row>
@@ -3164,7 +3257,7 @@
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21">
         <v>42200</v>
       </c>
     </row>
@@ -3174,6 +3267,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99561C7-25CB-4D11-A73E-2EC592714D96}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.15234375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="12">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25F3BCF-0275-494A-9981-C75EC037E171}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3614,18 +3854,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3826,14 +4066,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3846,6 +4078,14 @@
     <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
